--- a/Project Team Members Contact Details.xlsx
+++ b/Project Team Members Contact Details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>email2</t>
+  </si>
+  <si>
+    <t>Masud Rana</t>
+  </si>
+  <si>
+    <t>01730008834</t>
+  </si>
+  <si>
+    <t>masud.rana04@northsouth.edu</t>
+  </si>
+  <si>
+    <t>masud.r.rana@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -392,7 +404,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,11 +433,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -456,7 +476,11 @@
       <c r="E6" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>